--- a/Auswertung.xlsx
+++ b/Auswertung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Bachelorarbeit-Karl-Telle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF9F6D01-8648-4A25-9264-44CE5852EDE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC7599FA-87FC-487A-ABFE-A35DC3AD3AD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-10620" yWindow="4050" windowWidth="21600" windowHeight="11385" xr2:uid="{CD877657-A3E3-4492-BAAD-4DFB27A71C6F}"/>
   </bookViews>
@@ -460,25 +460,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F383CB6-4B3C-4CF8-84F9-2527976FA161}">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.85546875" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" customWidth="1"/>
-    <col min="5" max="5" width="23" customWidth="1"/>
-    <col min="6" max="6" width="24" customWidth="1"/>
-    <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" customWidth="1"/>
+    <col min="7" max="7" width="25.42578125" customWidth="1"/>
     <col min="8" max="8" width="18.42578125" customWidth="1"/>
     <col min="9" max="9" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -489,16 +489,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -509,16 +509,16 @@
         <v>0.2089</v>
       </c>
       <c r="D2">
+        <v>0.19350000000000001</v>
+      </c>
+      <c r="F2">
         <v>0.3962</v>
       </c>
-      <c r="E2">
-        <v>0.19350000000000001</v>
-      </c>
-      <c r="F2">
+      <c r="G2">
         <v>0.53180000000000005</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -529,16 +529,16 @@
         <v>0.1648</v>
       </c>
       <c r="D3">
+        <v>0.12189999999999999</v>
+      </c>
+      <c r="F3">
         <v>0.23899999999999999</v>
       </c>
-      <c r="E3">
-        <v>0.12189999999999999</v>
-      </c>
-      <c r="F3">
+      <c r="G3">
         <v>0.36859999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -549,16 +549,16 @@
         <v>0.17730000000000001</v>
       </c>
       <c r="D4">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="F4">
         <v>0.41170000000000001</v>
       </c>
-      <c r="E4">
-        <v>0.24199999999999999</v>
-      </c>
-      <c r="F4">
+      <c r="G4">
         <v>0.68400000000000005</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -569,16 +569,16 @@
         <v>0.183</v>
       </c>
       <c r="D5">
+        <v>0.30980000000000002</v>
+      </c>
+      <c r="F5">
         <v>0.45629999999999998</v>
       </c>
-      <c r="E5">
-        <v>0.30980000000000002</v>
-      </c>
-      <c r="F5">
+      <c r="G5">
         <v>0.67449999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -589,16 +589,16 @@
         <v>0.26879999999999998</v>
       </c>
       <c r="D6">
+        <v>0.23960000000000001</v>
+      </c>
+      <c r="F6">
         <v>0.40629999999999999</v>
       </c>
-      <c r="E6">
-        <v>0.23960000000000001</v>
-      </c>
-      <c r="F6">
+      <c r="G6">
         <v>0.51559999999999995</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -609,16 +609,16 @@
         <v>0.2858</v>
       </c>
       <c r="D7">
+        <v>0.34420000000000001</v>
+      </c>
+      <c r="F7">
         <v>0.42809999999999998</v>
       </c>
-      <c r="E7">
-        <v>0.34420000000000001</v>
-      </c>
-      <c r="F7">
+      <c r="G7">
         <v>0.58609999999999995</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -629,16 +629,16 @@
         <v>0.25669999999999998</v>
       </c>
       <c r="D8">
+        <v>0.2167</v>
+      </c>
+      <c r="F8">
         <v>0.39700000000000002</v>
       </c>
-      <c r="E8">
-        <v>0.2167</v>
-      </c>
-      <c r="F8">
+      <c r="G8">
         <v>0.58809999999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -649,16 +649,16 @@
         <v>0.20250000000000001</v>
       </c>
       <c r="D9">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="F9">
         <v>0.39589999999999997</v>
       </c>
-      <c r="E9">
-        <v>0.26100000000000001</v>
-      </c>
-      <c r="F9">
+      <c r="G9">
         <v>0.65910000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -669,16 +669,16 @@
         <v>0.1212</v>
       </c>
       <c r="D10">
+        <v>0.15629999999999999</v>
+      </c>
+      <c r="F10">
         <v>0.24540000000000001</v>
       </c>
-      <c r="E10">
-        <v>0.15629999999999999</v>
-      </c>
-      <c r="F10">
+      <c r="G10">
         <v>0.33289999999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -689,16 +689,16 @@
         <v>0.20710000000000001</v>
       </c>
       <c r="D11">
+        <v>0.19769999999999999</v>
+      </c>
+      <c r="F11">
         <v>0.35099999999999998</v>
       </c>
-      <c r="E11">
-        <v>0.19769999999999999</v>
-      </c>
-      <c r="F11">
+      <c r="G11">
         <v>0.56569999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
@@ -706,20 +706,20 @@
         <f>MEDIAN(C2:C11)</f>
         <v>0.20480000000000001</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="7">
         <f>MEDIAN(D2:D11)</f>
+        <v>0.22815000000000002</v>
+      </c>
+      <c r="F12" s="5">
+        <f>MEDIAN(F2:F11)</f>
         <v>0.39660000000000001</v>
       </c>
-      <c r="E12" s="7">
-        <f>MEDIAN(E2:E11)</f>
-        <v>0.22815000000000002</v>
-      </c>
-      <c r="F12" s="7">
-        <f>MEDIAN(F2:F11)</f>
+      <c r="G12" s="7">
+        <f>MEDIAN(G2:G11)</f>
         <v>0.57589999999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>9</v>
       </c>
@@ -727,20 +727,20 @@
         <f>_xlfn.STDEV.P(C2:C11)</f>
         <v>4.8082729747800423E-2</v>
       </c>
-      <c r="D13" s="6">
-        <f t="shared" ref="D13:F13" si="0">_xlfn.STDEV.P(D2:D11)</f>
+      <c r="D13" s="8">
+        <f>_xlfn.STDEV.P(D2:D11)</f>
+        <v>6.3440240384159796E-2</v>
+      </c>
+      <c r="F13" s="6">
+        <f>_xlfn.STDEV.P(F2:F11)</f>
         <v>6.9957793704489832E-2</v>
       </c>
-      <c r="E13" s="8">
-        <f t="shared" si="0"/>
-        <v>6.3440240384159796E-2</v>
-      </c>
-      <c r="F13" s="8">
-        <f t="shared" si="0"/>
+      <c r="G13" s="8">
+        <f>_xlfn.STDEV.P(G2:G11)</f>
         <v>0.11397773642251395</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -751,16 +751,16 @@
         <v>6.3399999999999998E-2</v>
       </c>
       <c r="D15">
+        <v>8.4099999999999994E-2</v>
+      </c>
+      <c r="F15">
         <v>0.16209999999999999</v>
       </c>
-      <c r="E15">
-        <v>8.4099999999999994E-2</v>
-      </c>
-      <c r="F15">
+      <c r="G15">
         <v>0.19689999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -771,16 +771,16 @@
         <v>6.54E-2</v>
       </c>
       <c r="D16">
+        <v>8.3699999999999997E-2</v>
+      </c>
+      <c r="F16">
         <v>0.16470000000000001</v>
       </c>
-      <c r="E16">
-        <v>8.3699999999999997E-2</v>
-      </c>
-      <c r="F16">
+      <c r="G16">
         <v>0.19670000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -791,16 +791,16 @@
         <v>4.7899999999999998E-2</v>
       </c>
       <c r="D17">
+        <v>4.3400000000000001E-2</v>
+      </c>
+      <c r="F17">
         <v>0.1515</v>
       </c>
-      <c r="E17">
-        <v>4.3400000000000001E-2</v>
-      </c>
-      <c r="F17">
+      <c r="G17">
         <v>0.18720000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -811,16 +811,16 @@
         <v>5.3999999999999999E-2</v>
       </c>
       <c r="D18">
+        <v>9.2200000000000004E-2</v>
+      </c>
+      <c r="F18">
         <v>0.16639999999999999</v>
       </c>
-      <c r="E18">
-        <v>9.2200000000000004E-2</v>
-      </c>
-      <c r="F18">
+      <c r="G18">
         <v>0.18809999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -831,16 +831,16 @@
         <v>7.0699999999999999E-2</v>
       </c>
       <c r="D19">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="F19">
         <v>0.151</v>
       </c>
-      <c r="E19">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="F19">
+      <c r="G19">
         <v>0.1749</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -851,16 +851,16 @@
         <v>6.8599999999999994E-2</v>
       </c>
       <c r="D20">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="F20">
         <v>0.1542</v>
       </c>
-      <c r="E20">
-        <v>6.4000000000000001E-2</v>
-      </c>
-      <c r="F20">
+      <c r="G20">
         <v>0.17510000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>8</v>
       </c>
@@ -869,20 +869,20 @@
         <f>MEDIAN(C15:C20)</f>
         <v>6.4399999999999999E-2</v>
       </c>
-      <c r="D21" s="5">
-        <f t="shared" ref="D21:F21" si="1">MEDIAN(D15:D20)</f>
+      <c r="D21" s="7">
+        <f>MEDIAN(D15:D20)</f>
+        <v>7.9350000000000004E-2</v>
+      </c>
+      <c r="F21" s="5">
+        <f>MEDIAN(F15:F20)</f>
         <v>0.15815000000000001</v>
       </c>
-      <c r="E21" s="7">
-        <f t="shared" si="1"/>
-        <v>7.9350000000000004E-2</v>
-      </c>
-      <c r="F21" s="7">
-        <f t="shared" si="1"/>
+      <c r="G21" s="7">
+        <f>MEDIAN(G15:G20)</f>
         <v>0.18764999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>9</v>
       </c>
@@ -891,20 +891,20 @@
         <f>_xlfn.STDEV.P(C15:C20)</f>
         <v>8.1128841288957837E-3</v>
       </c>
-      <c r="D22" s="6">
-        <f t="shared" ref="D22:F22" si="2">_xlfn.STDEV.P(D15:D20)</f>
+      <c r="D22" s="8">
+        <f>_xlfn.STDEV.P(D15:D20)</f>
+        <v>1.6146585466352368E-2</v>
+      </c>
+      <c r="F22" s="6">
+        <f>_xlfn.STDEV.P(F15:F20)</f>
         <v>6.2895195011666485E-3</v>
       </c>
-      <c r="E22" s="8">
-        <f t="shared" si="2"/>
-        <v>1.6146585466352368E-2</v>
-      </c>
-      <c r="F22" s="8">
-        <f t="shared" si="2"/>
+      <c r="G22" s="8">
+        <f>_xlfn.STDEV.P(G15:G20)</f>
         <v>8.9421132227728416E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -915,16 +915,16 @@
         <v>4.2200000000000001E-2</v>
       </c>
       <c r="D24">
+        <v>7.3400000000000007E-2</v>
+      </c>
+      <c r="F24">
         <v>0.1409</v>
       </c>
-      <c r="E24">
-        <v>7.3400000000000007E-2</v>
-      </c>
-      <c r="F24">
+      <c r="G24">
         <v>0.12130000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -935,16 +935,16 @@
         <v>4.36E-2</v>
       </c>
       <c r="D25">
+        <v>7.0300000000000001E-2</v>
+      </c>
+      <c r="F25">
         <v>0.1426</v>
       </c>
-      <c r="E25">
-        <v>7.0300000000000001E-2</v>
-      </c>
-      <c r="F25">
+      <c r="G25">
         <v>0.1176</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -955,16 +955,16 @@
         <v>4.4499999999999998E-2</v>
       </c>
       <c r="D26">
+        <v>6.2600000000000003E-2</v>
+      </c>
+      <c r="F26">
         <v>0.14330000000000001</v>
       </c>
-      <c r="E26">
-        <v>6.2600000000000003E-2</v>
-      </c>
-      <c r="F26">
+      <c r="G26">
         <v>0.1028</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>10</v>
       </c>
@@ -975,16 +975,16 @@
         <v>3.5099999999999999E-2</v>
       </c>
       <c r="D27">
+        <v>6.3700000000000007E-2</v>
+      </c>
+      <c r="F27">
         <v>0.14410000000000001</v>
       </c>
-      <c r="E27">
-        <v>6.3700000000000007E-2</v>
-      </c>
-      <c r="F27">
+      <c r="G27">
         <v>9.98E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>8</v>
       </c>
@@ -995,18 +995,18 @@
       </c>
       <c r="D28" s="7">
         <f>MEDIAN(D24:D27)</f>
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="F28" s="7">
+        <f>MEDIAN(F24:F27)</f>
         <v>0.14295000000000002</v>
       </c>
-      <c r="E28" s="7">
-        <f>MEDIAN(E24:E27)</f>
-        <v>6.7000000000000004E-2</v>
-      </c>
-      <c r="F28" s="5">
-        <f t="shared" ref="D28:F28" si="3">MEDIAN(F24:F27)</f>
+      <c r="G28" s="5">
+        <f>MEDIAN(G24:G27)</f>
         <v>0.11019999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>9</v>
       </c>
@@ -1015,16 +1015,16 @@
         <f>_xlfn.STDEV.P(C24:C27)</f>
         <v>3.7003378224156774E-3</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29" s="8">
         <f>_xlfn.STDEV.P(D24:D27)</f>
+        <v>4.5027769209677708E-3</v>
+      </c>
+      <c r="F29" s="6">
+        <f>_xlfn.STDEV.P(F24:F27)</f>
         <v>1.1797775213996955E-3</v>
       </c>
-      <c r="E29" s="8">
-        <f>_xlfn.STDEV.P(E24:E27)</f>
-        <v>4.5027769209677708E-3</v>
-      </c>
-      <c r="F29" s="8">
-        <f>_xlfn.STDEV.P(F24:F27)</f>
+      <c r="G29" s="8">
+        <f>_xlfn.STDEV.P(G24:G27)</f>
         <v>9.2299444743725312E-3</v>
       </c>
     </row>
